--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/40.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/40.xlsx
@@ -479,13 +479,13 @@
         <v>-13.14005992228333</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.019826925920691</v>
+        <v>-8.891456896557568</v>
       </c>
       <c r="F2" t="n">
-        <v>5.893261748912747</v>
+        <v>6.279563236560715</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.88355833681547</v>
+        <v>-16.05680878032004</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.20246259947344</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.296506561874889</v>
+        <v>-9.120676934710508</v>
       </c>
       <c r="F3" t="n">
-        <v>5.806931103974405</v>
+        <v>6.205905940773165</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.42082398517751</v>
+        <v>-15.59191419871319</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.02976711042309</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.350944357090786</v>
+        <v>-9.152216292256226</v>
       </c>
       <c r="F4" t="n">
-        <v>5.936335425262025</v>
+        <v>6.316143130700499</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.63851961347585</v>
+        <v>-14.77521634744631</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.773354423978068</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.30172048175977</v>
+        <v>-10.13028986835021</v>
       </c>
       <c r="F5" t="n">
-        <v>6.010202197895044</v>
+        <v>6.393466271283732</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.65896660716075</v>
+        <v>-13.72127287638452</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.470142883097001</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.89433047758766</v>
+        <v>-10.72775710853238</v>
       </c>
       <c r="F6" t="n">
-        <v>6.220255104687697</v>
+        <v>6.601764809495594</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.8965887203842</v>
+        <v>-12.95916992796765</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.207419667248129</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.71557135794061</v>
+        <v>-11.57850803949058</v>
       </c>
       <c r="F7" t="n">
-        <v>6.537533971754086</v>
+        <v>6.925642197194214</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.5707312116026</v>
+        <v>-11.55792693942339</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.02127135393546</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.51933401399986</v>
+        <v>-12.38296458760044</v>
       </c>
       <c r="F8" t="n">
-        <v>6.81001097849609</v>
+        <v>7.218386088735209</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.84427860382374</v>
+        <v>-10.79452785302519</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.959048700045577</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.24164945408073</v>
+        <v>-13.13083620282836</v>
       </c>
       <c r="F9" t="n">
-        <v>6.875289200464936</v>
+        <v>7.284868802565494</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.636395835948939</v>
+        <v>-9.509465959898405</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.031038792579366</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.28551185195439</v>
+        <v>-14.18467493546742</v>
       </c>
       <c r="F10" t="n">
-        <v>7.032501572988382</v>
+        <v>7.424432750858293</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.005791977274361</v>
+        <v>-8.84217746866131</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.232005178493733</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.18590879528842</v>
+        <v>-15.07880066574026</v>
       </c>
       <c r="F11" t="n">
-        <v>7.256537059215998</v>
+        <v>7.658549310274039</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.203325459196446</v>
+        <v>-7.97558485126462</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.546770083444127</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.44325428329926</v>
+        <v>-16.37819863047873</v>
       </c>
       <c r="F12" t="n">
-        <v>7.192201483051757</v>
+        <v>7.579157585841812</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.767273220749916</v>
+        <v>-7.528705278367984</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.938260531989629</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.41108967857102</v>
+        <v>-17.38845308695768</v>
       </c>
       <c r="F13" t="n">
-        <v>7.088929398236221</v>
+        <v>7.495916724374118</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.500583011863957</v>
+        <v>-7.311150482047022</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.378693688231257</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.78058383272409</v>
+        <v>-18.79553524256934</v>
       </c>
       <c r="F14" t="n">
-        <v>7.094140134767228</v>
+        <v>7.464102428468723</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.580665444992916</v>
+        <v>-6.353788929048645</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.836137512474861</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.86109158625175</v>
+        <v>-19.90343209364189</v>
       </c>
       <c r="F15" t="n">
-        <v>7.078481740568524</v>
+        <v>7.463002675030019</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.116648047676461</v>
+        <v>-5.894602591480787</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.2811777382210105</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.82696313609724</v>
+        <v>-20.87371574954505</v>
       </c>
       <c r="F16" t="n">
-        <v>6.980472761495363</v>
+        <v>7.344255488255564</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.508078534684508</v>
+        <v>-5.278452635143474</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2996730215469836</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.90131750728928</v>
+        <v>-21.98921922856864</v>
       </c>
       <c r="F17" t="n">
-        <v>7.2934049840183</v>
+        <v>7.672767551160153</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.589041335457742</v>
+        <v>-5.409820801857354</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9186961923286009</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.76068317351734</v>
+        <v>-22.86378505839594</v>
       </c>
       <c r="F18" t="n">
-        <v>7.67789973387411</v>
+        <v>8.083604014333517</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.046352290365355</v>
+        <v>-4.850386701430399</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.570290082893219</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.38138925124358</v>
+        <v>-23.48053726066397</v>
       </c>
       <c r="F19" t="n">
-        <v>7.987009003967263</v>
+        <v>8.390121008464009</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.18503587101388</v>
+        <v>-3.983885730153601</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.239258847726599</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.27544952000221</v>
+        <v>-24.39394795302267</v>
       </c>
       <c r="F20" t="n">
-        <v>8.200492094104447</v>
+        <v>8.611878433997164</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.742686234900482</v>
+        <v>-3.580891556382431</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.906554052744347</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.41040497769472</v>
+        <v>-24.46274800445594</v>
       </c>
       <c r="F21" t="n">
-        <v>8.053439348586181</v>
+        <v>8.441992712322927</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.703697357037821</v>
+        <v>-3.566764961616208</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.542394323534661</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.0872901269148</v>
+        <v>-25.13346667903757</v>
       </c>
       <c r="F22" t="n">
-        <v>8.44914110967451</v>
+        <v>8.847880285022118</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.089985752382949</v>
+        <v>-4.005762968202125</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>4.12214165552597</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.22697190593318</v>
+        <v>-25.24443703792404</v>
       </c>
       <c r="F23" t="n">
-        <v>8.093580349098913</v>
+        <v>8.454796984502135</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.972285949835832</v>
+        <v>-3.904939144017993</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>4.623889854529687</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.63822732279747</v>
+        <v>-25.65988199169769</v>
       </c>
       <c r="F24" t="n">
-        <v>8.065039128903949</v>
+        <v>8.426779456420842</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.845342981482456</v>
+        <v>-3.797451337687422</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>5.03142573701911</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.68103915308992</v>
+        <v>-25.66341691346496</v>
       </c>
       <c r="F25" t="n">
-        <v>8.18700702217747</v>
+        <v>8.558330915374505</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.730209270292316</v>
+        <v>-3.674815736968974</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>5.344215893049686</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.00613412495282</v>
+        <v>-25.99264905302584</v>
       </c>
       <c r="F26" t="n">
-        <v>8.086327213324596</v>
+        <v>8.451707201031487</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.543853431643188</v>
+        <v>-3.500059678637614</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>5.56504298266457</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.96925310784768</v>
+        <v>-25.97253927586095</v>
       </c>
       <c r="F27" t="n">
-        <v>8.012643732931362</v>
+        <v>8.352415176279838</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.662260218543758</v>
+        <v>-3.644363040559119</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>5.708111135549021</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.91294311332541</v>
+        <v>-25.90575543906531</v>
       </c>
       <c r="F28" t="n">
-        <v>7.881851627542519</v>
+        <v>8.238931095247755</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.887997704140799</v>
+        <v>-3.898510823322705</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>5.793412933040637</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.7837613611861</v>
+        <v>-25.72502929063812</v>
       </c>
       <c r="F29" t="n">
-        <v>7.828277924314176</v>
+        <v>8.177502010314377</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.688889962523829</v>
+        <v>-3.700568296658649</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>5.838519824025638</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.65743373106629</v>
+        <v>-25.61309010134136</v>
       </c>
       <c r="F30" t="n">
-        <v>7.928250748813596</v>
+        <v>8.281009756581064</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.839621645140621</v>
+        <v>-3.844596720220477</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>5.866427944343672</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.3324042207176</v>
+        <v>-25.29595524960623</v>
       </c>
       <c r="F31" t="n">
-        <v>7.755196689851661</v>
+        <v>8.105311052445099</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.237588374620569</v>
+        <v>-4.267216255951395</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>5.889524468517545</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.90509764056934</v>
+        <v>-24.85498030529121</v>
       </c>
       <c r="F32" t="n">
-        <v>7.899238205716332</v>
+        <v>8.276558373614877</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.145955347031328</v>
+        <v>-4.154412974667083</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>5.916230121309849</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.7594981406665</v>
+        <v>-24.72266949277273</v>
       </c>
       <c r="F33" t="n">
-        <v>7.918431521682302</v>
+        <v>8.315390143843436</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.280072897341969</v>
+        <v>-4.290363447375566</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>5.950611860613676</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.36634937863231</v>
+        <v>-24.34406627919569</v>
       </c>
       <c r="F34" t="n">
-        <v>8.03469117091683</v>
+        <v>8.444506434468538</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.313327346559954</v>
+        <v>-4.313798669462256</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>5.985146202160903</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.20888825235487</v>
+        <v>-24.17864503279048</v>
       </c>
       <c r="F35" t="n">
-        <v>7.931288163072876</v>
+        <v>8.334321613752572</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.472765410566494</v>
+        <v>-4.477164424321314</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>6.015860049869006</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.86440357998338</v>
+        <v>-23.85912738193816</v>
       </c>
       <c r="F36" t="n">
-        <v>8.075408232754597</v>
+        <v>8.494702323563716</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.399500883864195</v>
+        <v>-4.377230876730419</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>6.029627862475398</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.27809098182236</v>
+        <v>-23.25258717588667</v>
       </c>
       <c r="F37" t="n">
-        <v>8.03712633924539</v>
+        <v>8.446575018317532</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.513744318461097</v>
+        <v>-4.494603371706493</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>6.013622851747709</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.78050492001972</v>
+        <v>-22.77148432336177</v>
       </c>
       <c r="F38" t="n">
-        <v>8.023955482586613</v>
+        <v>8.454194738571415</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.484404467792788</v>
+        <v>-4.48183837643581</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>5.959590808860893</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.59680681884746</v>
+        <v>-22.60379810856494</v>
       </c>
       <c r="F39" t="n">
-        <v>8.187399791262722</v>
+        <v>8.612035541631265</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.715575259069146</v>
+        <v>-4.739573450178029</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>5.856921394935601</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.89591038621565</v>
+        <v>-21.90301950665871</v>
       </c>
       <c r="F40" t="n">
-        <v>8.461055105260479</v>
+        <v>8.904360479481324</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.673156197861953</v>
+        <v>-4.679244118683356</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>5.707308359756272</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.2192216215382</v>
+        <v>-21.20590674954816</v>
       </c>
       <c r="F41" t="n">
-        <v>8.445920403175444</v>
+        <v>8.883177133483413</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.703045925249614</v>
+        <v>-4.719502949921663</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>5.51070610552037</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.51556271300679</v>
+        <v>-20.5089772846774</v>
       </c>
       <c r="F42" t="n">
-        <v>8.444270773017388</v>
+        <v>8.864874094110679</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.041495046011074</v>
+        <v>-5.052571134215174</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>5.271136540512559</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.67456554766568</v>
+        <v>-19.63459474708988</v>
       </c>
       <c r="F43" t="n">
-        <v>8.558906976699541</v>
+        <v>8.989539001769595</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.197594572792974</v>
+        <v>-5.212978028632002</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>4.996669407499535</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.99029633964286</v>
+        <v>-18.96927010127905</v>
       </c>
       <c r="F44" t="n">
-        <v>8.327199401006673</v>
+        <v>8.726305160833851</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.991639556789782</v>
+        <v>-4.985748020511005</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>4.689056692257219</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.52000772926522</v>
+        <v>-18.48166037424181</v>
       </c>
       <c r="F45" t="n">
-        <v>8.376819228776816</v>
+        <v>8.790614552392409</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.179252256511716</v>
+        <v>-5.147922375811466</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>4.356904915730459</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.84757396301133</v>
+        <v>-17.82804024717147</v>
       </c>
       <c r="F46" t="n">
-        <v>8.452911692892927</v>
+        <v>8.834787982180393</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.315032529283257</v>
+        <v>-5.274917713376208</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.003306483862202</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.69863592588385</v>
+        <v>-17.70273381667331</v>
       </c>
       <c r="F47" t="n">
-        <v>8.315206851603651</v>
+        <v>8.698811324866226</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.611363711802885</v>
+        <v>-5.582560645551087</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>3.633492267339503</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.05415422619705</v>
+        <v>-17.03642724814935</v>
       </c>
       <c r="F48" t="n">
-        <v>8.257077026986389</v>
+        <v>8.62549442895256</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.705863953714464</v>
+        <v>-5.679915009482163</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>3.256416258829661</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.18686771674974</v>
+        <v>-16.15204219119075</v>
       </c>
       <c r="F49" t="n">
-        <v>8.190122990253801</v>
+        <v>8.551601471713857</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.921847673694419</v>
+        <v>-5.873589445419817</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>2.876013882407332</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.63153150711225</v>
+        <v>-15.59779264268912</v>
       </c>
       <c r="F50" t="n">
-        <v>7.936970222506186</v>
+        <v>8.295044705227394</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.152835172730992</v>
+        <v>-6.120065138718151</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>2.504295958353924</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.91324849630663</v>
+        <v>-14.87229577301771</v>
       </c>
       <c r="F51" t="n">
-        <v>7.763156809979431</v>
+        <v>8.098005547459417</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.099025808051498</v>
+        <v>-6.05452507069247</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>2.148435718288436</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.22994811869411</v>
+        <v>-14.17746107660163</v>
       </c>
       <c r="F52" t="n">
-        <v>7.631081658912098</v>
+        <v>7.951974001562804</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.269814898621815</v>
+        <v>-6.202887046494911</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>1.816198760025453</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.7447997445911</v>
+        <v>-13.69439437865046</v>
       </c>
       <c r="F53" t="n">
-        <v>7.680230163779938</v>
+        <v>8.009318288009563</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.303370470805158</v>
+        <v>-6.231375897478507</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>1.515415310884125</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.30204424708961</v>
+        <v>-13.26914329004835</v>
       </c>
       <c r="F54" t="n">
-        <v>7.463343074903904</v>
+        <v>7.789001015788998</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.527353587821407</v>
+        <v>-6.453787938153749</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>1.246744085544076</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.70872726690827</v>
+        <v>-12.68300089182428</v>
       </c>
       <c r="F55" t="n">
-        <v>7.422023767135416</v>
+        <v>7.725241500949791</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.856153681388516</v>
+        <v>-6.804583100494957</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>1.013154671955041</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.42114174268692</v>
+        <v>-12.38441783321587</v>
       </c>
       <c r="F56" t="n">
-        <v>7.469496457239515</v>
+        <v>7.792221722288063</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.806468392104166</v>
+        <v>-6.729799866663018</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.8109830731963594</v>
       </c>
       <c r="E57" t="n">
-        <v>-11.9645738656874</v>
+        <v>-11.92579446467021</v>
       </c>
       <c r="F57" t="n">
-        <v>7.112390804928594</v>
+        <v>7.412859155146208</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.04679070306689</v>
+        <v>-6.963314180148044</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.6353812997758935</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.53603660907202</v>
+        <v>-11.48755581164911</v>
       </c>
       <c r="F58" t="n">
-        <v>7.267194193729163</v>
+        <v>7.582011707861309</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.804350622397685</v>
+        <v>-7.770218988889305</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.4810246994545509</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.51330837133879</v>
+        <v>-11.50952469581753</v>
       </c>
       <c r="F59" t="n">
-        <v>7.120560401901831</v>
+        <v>7.4331260399452</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.809679189654267</v>
+        <v>-7.750423426992615</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.3384852598941078</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.28704719362808</v>
+        <v>-11.30105595766872</v>
       </c>
       <c r="F60" t="n">
-        <v>6.971360518717521</v>
+        <v>7.273818898967077</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.049464716200481</v>
+        <v>-7.995406597766993</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2017942830681557</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.33664083679254</v>
+        <v>-11.35465584550275</v>
       </c>
       <c r="F61" t="n">
-        <v>6.798908705686306</v>
+        <v>7.092438135397804</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.515236482097727</v>
+        <v>-8.464333608649095</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.06440823043414334</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.42365228147865</v>
+        <v>-11.48208322906127</v>
       </c>
       <c r="F62" t="n">
-        <v>6.831168139888319</v>
+        <v>7.160439556357729</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.747729595961099</v>
+        <v>-8.709879748445669</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.07893761796680386</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.06416383005053</v>
+        <v>-11.10328363094161</v>
       </c>
       <c r="F63" t="n">
-        <v>7.155281189038089</v>
+        <v>7.508825734976059</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.794285824866277</v>
+        <v>-8.764592482021241</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2298289335551146</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.80653349473105</v>
+        <v>-10.80734521750724</v>
       </c>
       <c r="F64" t="n">
-        <v>7.000006477335218</v>
+        <v>7.355802899361966</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.026818215638173</v>
+        <v>-9.010465929388857</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3903655242929536</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.83100300874223</v>
+        <v>-10.82776920994033</v>
       </c>
       <c r="F65" t="n">
-        <v>6.974267009948385</v>
+        <v>7.333598353742398</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.092345191361012</v>
+        <v>-9.074722951736049</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5595517850167612</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.54612759120912</v>
+        <v>-10.53070485846156</v>
       </c>
       <c r="F66" t="n">
-        <v>6.799563320828391</v>
+        <v>7.13936094878255</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.483451554151895</v>
+        <v>-9.490180997812542</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7358121278731816</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.77890873573501</v>
+        <v>-10.76404897200965</v>
       </c>
       <c r="F67" t="n">
-        <v>6.55827217945538</v>
+        <v>6.903778051448532</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.533791458578332</v>
+        <v>-9.539277133469016</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.9187342432193893</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.93434055507198</v>
+        <v>-10.95149147179464</v>
       </c>
       <c r="F68" t="n">
-        <v>6.527374344748907</v>
+        <v>6.871413878823785</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.358079662139525</v>
+        <v>-9.369247396463518</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.105193529797539</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.73749778184663</v>
+        <v>-10.75327400677091</v>
       </c>
       <c r="F69" t="n">
-        <v>6.516638656418691</v>
+        <v>6.842532258754937</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.360200615199886</v>
+        <v>-9.352777279488627</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.294523524435498</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.9953114094059</v>
+        <v>-11.02407519874917</v>
       </c>
       <c r="F70" t="n">
-        <v>6.315069561867477</v>
+        <v>6.659344757393506</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.477717125507219</v>
+        <v>-9.505826299708405</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.484951553500693</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.95556317797842</v>
+        <v>-10.97914241539636</v>
       </c>
       <c r="F71" t="n">
-        <v>5.97474824179965</v>
+        <v>6.276604376118486</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.445431506699522</v>
+        <v>-9.465318714716105</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.674997222588326</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.99194668757557</v>
+        <v>-11.00219796070064</v>
       </c>
       <c r="F72" t="n">
-        <v>6.214442122225971</v>
+        <v>6.549814551819625</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.725148556913</v>
+        <v>-9.77211064720627</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.865138197205237</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.43002823296257</v>
+        <v>-11.45126394817185</v>
       </c>
       <c r="F73" t="n">
-        <v>6.335493554300569</v>
+        <v>6.690059299860195</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.45299885774204</v>
+        <v>-9.467099267902579</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.051855009790045</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.56102981519688</v>
+        <v>-11.58141453072145</v>
       </c>
       <c r="F74" t="n">
-        <v>6.29166052438647</v>
+        <v>6.619334679909191</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.529562644760453</v>
+        <v>-9.557645634355957</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.232542526866367</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.08892455807812</v>
+        <v>-12.12251940716999</v>
       </c>
       <c r="F75" t="n">
-        <v>6.25175518532489</v>
+        <v>6.59702539586689</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.700129166182462</v>
+        <v>-9.761584435721524</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.40210879204754</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.98698788815244</v>
+        <v>-11.98401593540737</v>
       </c>
       <c r="F76" t="n">
-        <v>6.142094056722592</v>
+        <v>6.486002667769053</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.749042009599149</v>
+        <v>-9.833984870436268</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.5549374584287</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.68466361428518</v>
+        <v>-12.71378089580518</v>
       </c>
       <c r="F77" t="n">
-        <v>6.103943086241802</v>
+        <v>6.43106736504517</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.501073793776857</v>
+        <v>-9.576302165905416</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.687897783256863</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.38100392552806</v>
+        <v>-13.40754202338824</v>
       </c>
       <c r="F78" t="n">
-        <v>6.16277989521252</v>
+        <v>6.488830605182866</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.881585300214907</v>
+        <v>-8.915494364574975</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.795975240275047</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.63985184501183</v>
+        <v>-13.63350207813359</v>
       </c>
       <c r="F79" t="n">
-        <v>6.355996100550713</v>
+        <v>6.688802438787389</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.099166281141551</v>
+        <v>-9.174630314721261</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.876524263948306</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.23504102449954</v>
+        <v>-14.23553853200752</v>
       </c>
       <c r="F80" t="n">
-        <v>6.357802838342871</v>
+        <v>6.675291182254728</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.513167898248733</v>
+        <v>-8.556032097752546</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.925991910073469</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.82555625187275</v>
+        <v>-14.8276117434189</v>
       </c>
       <c r="F81" t="n">
-        <v>6.459032523915097</v>
+        <v>6.799065813320406</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.37068436642223</v>
+        <v>-8.411440705168523</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.939324648982787</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.67268061494379</v>
+        <v>-15.67190816907613</v>
       </c>
       <c r="F82" t="n">
-        <v>6.476497655905959</v>
+        <v>6.836378876419325</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.262921621731982</v>
+        <v>-8.306492805589247</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.913411720542008</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.6910784837903</v>
+        <v>-16.68470253230637</v>
       </c>
       <c r="F83" t="n">
-        <v>6.646514300608614</v>
+        <v>7.006212228882196</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.128175640884937</v>
+        <v>-8.186685142284611</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.8435720089804</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.60617808321558</v>
+        <v>-17.56861626636267</v>
       </c>
       <c r="F84" t="n">
-        <v>6.59270493592912</v>
+        <v>6.956985170197306</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.776725863401643</v>
+        <v>-7.83996168612718</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.726350542261962</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.46098762805472</v>
+        <v>-18.42140959656418</v>
       </c>
       <c r="F85" t="n">
-        <v>6.799432397799975</v>
+        <v>7.144650239130607</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.549338747646544</v>
+        <v>-7.595449838255104</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.560378226054552</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.73886184692139</v>
+        <v>-19.70592161297161</v>
       </c>
       <c r="F86" t="n">
-        <v>6.669792415061203</v>
+        <v>7.008149889702771</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.578953536674529</v>
+        <v>-7.653042878455857</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.343979821407889</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.78822301198858</v>
+        <v>-20.74205955216865</v>
       </c>
       <c r="F87" t="n">
-        <v>6.753373676402783</v>
+        <v>7.111552897546724</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.045861149565127</v>
+        <v>-7.086093796197751</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.080673600355384</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.12578503951068</v>
+        <v>-22.04389268523568</v>
       </c>
       <c r="F88" t="n">
-        <v>7.06070239330946</v>
+        <v>7.442552497991242</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.109817048946959</v>
+        <v>-7.148897572929511</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-1.77575023994633</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.77566395132216</v>
+        <v>-23.72489200090194</v>
       </c>
       <c r="F89" t="n">
-        <v>6.897650853718604</v>
+        <v>7.265073240668804</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.787484552983662</v>
+        <v>-6.824653600751323</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.436431775843768</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.02446016557736</v>
+        <v>-24.92427786423247</v>
       </c>
       <c r="F90" t="n">
-        <v>7.193013205827944</v>
+        <v>7.590207489440229</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.187114004924509</v>
+        <v>-7.238828601149327</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.074609715343471</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.76162546043462</v>
+        <v>-26.6661694804156</v>
       </c>
       <c r="F91" t="n">
-        <v>7.292252861368227</v>
+        <v>7.682010716966412</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.728097867293593</v>
+        <v>-6.771564312728124</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.7009649208315972</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.74890610878022</v>
+        <v>-28.66033668005594</v>
       </c>
       <c r="F92" t="n">
-        <v>7.007940412857304</v>
+        <v>7.367847817976354</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.981329188858259</v>
+        <v>-7.030844278205667</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.3296760764861863</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.60997695773158</v>
+        <v>-30.51471736225518</v>
       </c>
       <c r="F93" t="n">
-        <v>7.041456708132123</v>
+        <v>7.422992597545703</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.260558640512714</v>
+        <v>-6.262195178367929</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.02744815600420602</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.59289786923089</v>
+        <v>-32.48685021621291</v>
       </c>
       <c r="F94" t="n">
-        <v>7.000373061814786</v>
+        <v>7.368083479427504</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.614679247775721</v>
+        <v>-6.646716112829425</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.363081988292308</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.92969063423921</v>
+        <v>-34.85585004621187</v>
       </c>
       <c r="F95" t="n">
-        <v>6.96596648994673</v>
+        <v>7.350251762957074</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.995871553961538</v>
+        <v>-5.979964406008841</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.6720569406478593</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.35815570374529</v>
+        <v>-37.29397723521515</v>
       </c>
       <c r="F96" t="n">
-        <v>6.72347085671228</v>
+        <v>7.092778535271689</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.930907547260893</v>
+        <v>-5.899289635898125</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.9553137993797791</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.33856289309899</v>
+        <v>-39.25820233825647</v>
       </c>
       <c r="F97" t="n">
-        <v>6.659082911336671</v>
+        <v>7.040461693116152</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.521995652605263</v>
+        <v>-5.466942519155805</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>1.217250896159503</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.75384401364345</v>
+        <v>-41.66952958334274</v>
       </c>
       <c r="F98" t="n">
-        <v>6.580581463497682</v>
+        <v>6.957404123888241</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.707317199329895</v>
+        <v>-5.644762176352129</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>1.460916951834922</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.11963622944619</v>
+        <v>-44.08001892104713</v>
       </c>
       <c r="F99" t="n">
-        <v>6.410486264977976</v>
+        <v>6.78013434341127</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.449307187227999</v>
+        <v>-5.379302643933291</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>1.699007052853109</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.24288044280312</v>
+        <v>-46.19125749269819</v>
       </c>
       <c r="F100" t="n">
-        <v>6.14541950164439</v>
+        <v>6.506243367962361</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.511037395126738</v>
+        <v>-5.433727346846346</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.928259484775991</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.66991845129946</v>
+        <v>-48.61105545772305</v>
       </c>
       <c r="F101" t="n">
-        <v>6.117244865928996</v>
+        <v>6.493936603291139</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.527978835003932</v>
+        <v>-5.431501655363252</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.164448838118771</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.13955881324277</v>
+        <v>-51.12023457424838</v>
       </c>
       <c r="F102" t="n">
-        <v>5.397037286605645</v>
+        <v>5.724344857648797</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.217756719169232</v>
+        <v>-5.113175404069525</v>
       </c>
     </row>
   </sheetData>
